--- a/data/trans_bre/P16A06-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P16A06-Clase-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 3,55</t>
+          <t>-1,03; 3,66</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 4,88</t>
+          <t>-1,05; 4,54</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 3,24</t>
+          <t>-1,78; 3,12</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,17; 3,1</t>
+          <t>-1,85; 3,08</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-47,92; 284,06</t>
+          <t>-48,09; 298,34</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-37,7; 523,77</t>
+          <t>-44,5; 419,95</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-55,97; 212,29</t>
+          <t>-52,54; 206,05</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-34,42; 87,04</t>
+          <t>-29,17; 76,83</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,41; 1,86</t>
+          <t>-2,28; 2,03</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,89; 1,95</t>
+          <t>-2,3; 2,18</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 3,74</t>
+          <t>-1,25; 3,66</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,85; 6,35</t>
+          <t>0,92; 6,52</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-78,8; 188,21</t>
+          <t>-76,76; 221,45</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-79,36; 215,23</t>
+          <t>-71,09; 203,36</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-37,44; 293,86</t>
+          <t>-45,25; 318,94</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>16,14; 225,75</t>
+          <t>13,28; 213,59</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,1; 6,51</t>
+          <t>0,24; 6,35</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 5,06</t>
+          <t>-0,97; 4,98</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,98; 11,35</t>
+          <t>2,36; 12,17</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,67; 14,28</t>
+          <t>4,56; 14,48</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,27; 751,7</t>
+          <t>0,88; 773,07</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-24,67; 213,4</t>
+          <t>-30,21; 205,1</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>62,54; 717,67</t>
+          <t>61,58; 742,05</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>72,81; 984,48</t>
+          <t>69,58; 955,67</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 2,71</t>
+          <t>-0,58; 2,68</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,0; 4,56</t>
+          <t>0,91; 4,32</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,4; 4,14</t>
+          <t>0,27; 4,22</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,67; 2,02</t>
+          <t>-3,44; 2,2</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-22,09; 137,95</t>
+          <t>-21,15; 143,55</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>40,76; 412,18</t>
+          <t>31,01; 382,2</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>6,31; 161,04</t>
+          <t>5,08; 175,11</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-51,64; 36,64</t>
+          <t>-49,7; 39,92</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,81; 3,17</t>
+          <t>-1,94; 3,01</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,14; 9,02</t>
+          <t>4,05; 8,99</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,31; 9,63</t>
+          <t>4,33; 9,56</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,64; 12,29</t>
+          <t>4,37; 12,1</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-42,68; 202,57</t>
+          <t>-45,32; 188,4</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>113,7; 772,42</t>
+          <t>118,8; 724,62</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>97,78; 502,2</t>
+          <t>104,9; 452,58</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>67,33; 301,15</t>
+          <t>68,98; 293,03</t>
         </is>
       </c>
     </row>
@@ -1168,22 +1168,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>4,58; 7,09</t>
+          <t>4,66; 7,28</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>6,84; 10,5</t>
+          <t>6,92; 10,58</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>7,18; 11,6</t>
+          <t>7,2; 11,67</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,95; 12,18</t>
+          <t>3,28; 12,25</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1198,12 +1198,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>274,96; —</t>
+          <t>272,61; —</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1,44; 933,28</t>
+          <t>5,1; 912,03</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,35; 3,14</t>
+          <t>1,4; 3,13</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,34; 5,23</t>
+          <t>3,32; 5,37</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,75; 5,92</t>
+          <t>3,9; 6,02</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,9; 6,54</t>
+          <t>3,0; 6,54</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>54,6; 184,88</t>
+          <t>57,72; 193,85</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>133,29; 327,54</t>
+          <t>136,16; 328,59</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>122,32; 265,23</t>
+          <t>123,14; 268,51</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>56,76; 161,42</t>
+          <t>59,22; 167,22</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16A06-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P16A06-Clase-trans_bre.xlsx
@@ -1110,7 +1110,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
